--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Ngf-Sort1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Ngf-Sort1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Sort1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>M1</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>4.5630237630146</v>
+        <v>0.05916633333333333</v>
       </c>
       <c r="H2">
-        <v>4.5630237630146</v>
+        <v>0.177499</v>
       </c>
       <c r="I2">
-        <v>0.5145719422429775</v>
+        <v>0.005840587905374044</v>
       </c>
       <c r="J2">
-        <v>0.5145719422429775</v>
+        <v>0.005840587905374044</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.468555001982183</v>
+        <v>0.502378</v>
       </c>
       <c r="N2">
-        <v>0.468555001982183</v>
+        <v>1.507134</v>
       </c>
       <c r="O2">
-        <v>0.01879598950819274</v>
+        <v>0.0189742916423209</v>
       </c>
       <c r="P2">
-        <v>0.01879598950819274</v>
+        <v>0.0189742916423209</v>
       </c>
       <c r="Q2">
-        <v>2.138027608324054</v>
+        <v>0.02972386420733333</v>
       </c>
       <c r="R2">
-        <v>2.138027608324054</v>
+        <v>0.267514777866</v>
       </c>
       <c r="S2">
-        <v>0.009671888827609365</v>
+        <v>0.0001108210182791793</v>
       </c>
       <c r="T2">
-        <v>0.009671888827609365</v>
+        <v>0.0001108210182791793</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>4.5630237630146</v>
+        <v>0.05916633333333333</v>
       </c>
       <c r="H3">
-        <v>4.5630237630146</v>
+        <v>0.177499</v>
       </c>
       <c r="I3">
-        <v>0.5145719422429775</v>
+        <v>0.005840587905374044</v>
       </c>
       <c r="J3">
-        <v>0.5145719422429775</v>
+        <v>0.005840587905374044</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.599794932628456</v>
+        <v>0.6023626666666666</v>
       </c>
       <c r="N3">
-        <v>0.599794932628456</v>
+        <v>1.807088</v>
       </c>
       <c r="O3">
-        <v>0.02406065288612652</v>
+        <v>0.02275060793223323</v>
       </c>
       <c r="P3">
-        <v>0.02406065288612652</v>
+        <v>0.02275060793223323</v>
       </c>
       <c r="Q3">
-        <v>2.736878530519386</v>
+        <v>0.03563959032355555</v>
       </c>
       <c r="R3">
-        <v>2.736878530519386</v>
+        <v>0.320756312912</v>
       </c>
       <c r="S3">
-        <v>0.01238093688724822</v>
+        <v>0.0001328769255289082</v>
       </c>
       <c r="T3">
-        <v>0.01238093688724822</v>
+        <v>0.0001328769255289082</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
@@ -664,49 +664,49 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>4.5630237630146</v>
+        <v>0.05916633333333333</v>
       </c>
       <c r="H4">
-        <v>4.5630237630146</v>
+        <v>0.177499</v>
       </c>
       <c r="I4">
-        <v>0.5145719422429775</v>
+        <v>0.005840587905374044</v>
       </c>
       <c r="J4">
-        <v>0.5145719422429775</v>
+        <v>0.005840587905374044</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.1168456619624</v>
+        <v>5.474800666666667</v>
       </c>
       <c r="N4">
-        <v>5.1168456619624</v>
+        <v>16.424402</v>
       </c>
       <c r="O4">
-        <v>0.2052612328764424</v>
+        <v>0.2067774952981744</v>
       </c>
       <c r="P4">
-        <v>0.2052612328764424</v>
+        <v>0.2067774952981744</v>
       </c>
       <c r="Q4">
-        <v>23.34828834721261</v>
+        <v>0.3239238811775556</v>
       </c>
       <c r="R4">
-        <v>23.34828834721261</v>
+        <v>2.915314930598</v>
       </c>
       <c r="S4">
-        <v>0.1056216712684191</v>
+        <v>0.001207702138142056</v>
       </c>
       <c r="T4">
-        <v>0.1056216712684191</v>
+        <v>0.001207702138142056</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
@@ -726,49 +726,49 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>4.5630237630146</v>
+        <v>0.05916633333333333</v>
       </c>
       <c r="H5">
-        <v>4.5630237630146</v>
+        <v>0.177499</v>
       </c>
       <c r="I5">
-        <v>0.5145719422429775</v>
+        <v>0.005840587905374044</v>
       </c>
       <c r="J5">
-        <v>0.5145719422429775</v>
+        <v>0.005840587905374044</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.94522995442952</v>
+        <v>5.012936333333333</v>
       </c>
       <c r="N5">
-        <v>4.94522995442952</v>
+        <v>15.038809</v>
       </c>
       <c r="O5">
-        <v>0.1983769033429125</v>
+        <v>0.1893333624741797</v>
       </c>
       <c r="P5">
-        <v>0.1983769033429125</v>
+        <v>0.1893333624741797</v>
       </c>
       <c r="Q5">
-        <v>22.56520179563351</v>
+        <v>0.2965970620767777</v>
       </c>
       <c r="R5">
-        <v>22.56520179563351</v>
+        <v>2.669373558691</v>
       </c>
       <c r="S5">
-        <v>0.1020791884493099</v>
+        <v>0.001105818146950494</v>
       </c>
       <c r="T5">
-        <v>0.1020791884493099</v>
+        <v>0.001105818146950494</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,10 +776,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
@@ -788,49 +788,49 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>4.5630237630146</v>
+        <v>0.05916633333333333</v>
       </c>
       <c r="H6">
-        <v>4.5630237630146</v>
+        <v>0.177499</v>
       </c>
       <c r="I6">
-        <v>0.5145719422429775</v>
+        <v>0.005840587905374044</v>
       </c>
       <c r="J6">
-        <v>0.5145719422429775</v>
+        <v>0.005840587905374044</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.11517734602774</v>
+        <v>7.423250333333333</v>
       </c>
       <c r="N6">
-        <v>7.11517734602774</v>
+        <v>22.269751</v>
       </c>
       <c r="O6">
-        <v>0.2854239057935688</v>
+        <v>0.2803684014001858</v>
       </c>
       <c r="P6">
-        <v>0.2854239057935688</v>
+        <v>0.2803684014001858</v>
       </c>
       <c r="Q6">
-        <v>32.46672330798773</v>
+        <v>0.4392065036387777</v>
       </c>
       <c r="R6">
-        <v>32.46672330798773</v>
+        <v>3.952858532749</v>
       </c>
       <c r="S6">
-        <v>0.1468711335667733</v>
+        <v>0.00163751629426698</v>
       </c>
       <c r="T6">
-        <v>0.1468711335667733</v>
+        <v>0.00163751629426698</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>4.5630237630146</v>
+        <v>0.05916633333333333</v>
       </c>
       <c r="H7">
-        <v>4.5630237630146</v>
+        <v>0.177499</v>
       </c>
       <c r="I7">
-        <v>0.5145719422429775</v>
+        <v>0.005840587905374044</v>
       </c>
       <c r="J7">
-        <v>0.5145719422429775</v>
+        <v>0.005840587905374044</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.68285334508192</v>
+        <v>7.461044333333334</v>
       </c>
       <c r="N7">
-        <v>6.68285334508192</v>
+        <v>22.383133</v>
       </c>
       <c r="O7">
-        <v>0.2680813155927571</v>
+        <v>0.281795841252906</v>
       </c>
       <c r="P7">
-        <v>0.2680813155927571</v>
+        <v>0.281795841252906</v>
       </c>
       <c r="Q7">
-        <v>30.49401861835041</v>
+        <v>0.4414426360407778</v>
       </c>
       <c r="R7">
-        <v>30.49401861835041</v>
+        <v>3.972983724367</v>
       </c>
       <c r="S7">
-        <v>0.1379471232436176</v>
+        <v>0.001645853382206427</v>
       </c>
       <c r="T7">
-        <v>0.1379471232436176</v>
+        <v>0.001645853382206427</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.30458713532694</v>
+        <v>5.748364666666667</v>
       </c>
       <c r="H8">
-        <v>4.30458713532694</v>
+        <v>17.245094</v>
       </c>
       <c r="I8">
-        <v>0.4854280577570226</v>
+        <v>0.567448196572592</v>
       </c>
       <c r="J8">
-        <v>0.4854280577570226</v>
+        <v>0.567448196572592</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.468555001982183</v>
+        <v>0.502378</v>
       </c>
       <c r="N8">
-        <v>0.468555001982183</v>
+        <v>1.507134</v>
       </c>
       <c r="O8">
-        <v>0.01879598950819274</v>
+        <v>0.0189742916423209</v>
       </c>
       <c r="P8">
-        <v>0.01879598950819274</v>
+        <v>0.0189742916423209</v>
       </c>
       <c r="Q8">
-        <v>2.016935833725594</v>
+        <v>2.887851944510667</v>
       </c>
       <c r="R8">
-        <v>2.016935833725594</v>
+        <v>25.990667500596</v>
       </c>
       <c r="S8">
-        <v>0.009124100680583374</v>
+        <v>0.0107669275736774</v>
       </c>
       <c r="T8">
-        <v>0.009124100680583374</v>
+        <v>0.0107669275736774</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.30458713532694</v>
+        <v>5.748364666666667</v>
       </c>
       <c r="H9">
-        <v>4.30458713532694</v>
+        <v>17.245094</v>
       </c>
       <c r="I9">
-        <v>0.4854280577570226</v>
+        <v>0.567448196572592</v>
       </c>
       <c r="J9">
-        <v>0.4854280577570226</v>
+        <v>0.567448196572592</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.599794932628456</v>
+        <v>0.6023626666666666</v>
       </c>
       <c r="N9">
-        <v>0.599794932628456</v>
+        <v>1.807088</v>
       </c>
       <c r="O9">
-        <v>0.02406065288612652</v>
+        <v>0.02275060793223323</v>
       </c>
       <c r="P9">
-        <v>0.02406065288612652</v>
+        <v>0.02275060793223323</v>
       </c>
       <c r="Q9">
-        <v>2.58186955082674</v>
+        <v>3.462600269585778</v>
       </c>
       <c r="R9">
-        <v>2.58186955082674</v>
+        <v>31.163402426272</v>
       </c>
       <c r="S9">
-        <v>0.01167971599887829</v>
+        <v>0.01290979144207585</v>
       </c>
       <c r="T9">
-        <v>0.01167971599887829</v>
+        <v>0.01290979144207585</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.30458713532694</v>
+        <v>5.748364666666667</v>
       </c>
       <c r="H10">
-        <v>4.30458713532694</v>
+        <v>17.245094</v>
       </c>
       <c r="I10">
-        <v>0.4854280577570226</v>
+        <v>0.567448196572592</v>
       </c>
       <c r="J10">
-        <v>0.4854280577570226</v>
+        <v>0.567448196572592</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.1168456619624</v>
+        <v>5.474800666666667</v>
       </c>
       <c r="N10">
-        <v>5.1168456619624</v>
+        <v>16.424402</v>
       </c>
       <c r="O10">
-        <v>0.2052612328764424</v>
+        <v>0.2067774952981744</v>
       </c>
       <c r="P10">
-        <v>0.2052612328764424</v>
+        <v>0.2067774952981744</v>
       </c>
       <c r="Q10">
-        <v>22.02590800993681</v>
+        <v>31.47115070930978</v>
       </c>
       <c r="R10">
-        <v>22.02590800993681</v>
+        <v>283.240356383788</v>
       </c>
       <c r="S10">
-        <v>0.09963956160802333</v>
+        <v>0.1173355167987467</v>
       </c>
       <c r="T10">
-        <v>0.09963956160802333</v>
+        <v>0.1173355167987467</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.30458713532694</v>
+        <v>5.748364666666667</v>
       </c>
       <c r="H11">
-        <v>4.30458713532694</v>
+        <v>17.245094</v>
       </c>
       <c r="I11">
-        <v>0.4854280577570226</v>
+        <v>0.567448196572592</v>
       </c>
       <c r="J11">
-        <v>0.4854280577570226</v>
+        <v>0.567448196572592</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.94522995442952</v>
+        <v>5.012936333333333</v>
       </c>
       <c r="N11">
-        <v>4.94522995442952</v>
+        <v>15.038809</v>
       </c>
       <c r="O11">
-        <v>0.1983769033429125</v>
+        <v>0.1893333624741797</v>
       </c>
       <c r="P11">
-        <v>0.1983769033429125</v>
+        <v>0.1893333624741797</v>
       </c>
       <c r="Q11">
-        <v>21.28717324307074</v>
+        <v>28.81618609478289</v>
       </c>
       <c r="R11">
-        <v>21.28717324307074</v>
+        <v>259.345674853046</v>
       </c>
       <c r="S11">
-        <v>0.09629771489360263</v>
+        <v>0.1074368750869982</v>
       </c>
       <c r="T11">
-        <v>0.09629771489360263</v>
+        <v>0.1074368750869982</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
         <v>27</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.30458713532694</v>
+        <v>5.748364666666667</v>
       </c>
       <c r="H12">
-        <v>4.30458713532694</v>
+        <v>17.245094</v>
       </c>
       <c r="I12">
-        <v>0.4854280577570226</v>
+        <v>0.567448196572592</v>
       </c>
       <c r="J12">
-        <v>0.4854280577570226</v>
+        <v>0.567448196572592</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.11517734602774</v>
+        <v>7.423250333333333</v>
       </c>
       <c r="N12">
-        <v>7.11517734602774</v>
+        <v>22.269751</v>
       </c>
       <c r="O12">
-        <v>0.2854239057935688</v>
+        <v>0.2803684014001858</v>
       </c>
       <c r="P12">
-        <v>0.2854239057935688</v>
+        <v>0.2803684014001858</v>
       </c>
       <c r="Q12">
-        <v>30.62790086928069</v>
+        <v>42.67154992795489</v>
       </c>
       <c r="R12">
-        <v>30.62790086928069</v>
+        <v>384.0439493515941</v>
       </c>
       <c r="S12">
-        <v>0.1385527722267955</v>
+        <v>0.159094543750476</v>
       </c>
       <c r="T12">
-        <v>0.1385527722267955</v>
+        <v>0.159094543750476</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,433 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>5.748364666666667</v>
+      </c>
+      <c r="H13">
+        <v>17.245094</v>
+      </c>
+      <c r="I13">
+        <v>0.567448196572592</v>
+      </c>
+      <c r="J13">
+        <v>0.567448196572592</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>7.461044333333334</v>
+      </c>
+      <c r="N13">
+        <v>22.383133</v>
+      </c>
+      <c r="O13">
+        <v>0.281795841252906</v>
+      </c>
+      <c r="P13">
+        <v>0.281795841252906</v>
+      </c>
+      <c r="Q13">
+        <v>42.8888036221669</v>
+      </c>
+      <c r="R13">
+        <v>385.9992325995021</v>
+      </c>
+      <c r="S13">
+        <v>0.159904541920618</v>
+      </c>
+      <c r="T13">
+        <v>0.1599045419206179</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>4.322670666666667</v>
+      </c>
+      <c r="H14">
+        <v>12.968012</v>
+      </c>
+      <c r="I14">
+        <v>0.4267112155220338</v>
+      </c>
+      <c r="J14">
+        <v>0.4267112155220338</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.502378</v>
+      </c>
+      <c r="N14">
+        <v>1.507134</v>
+      </c>
+      <c r="O14">
+        <v>0.0189742916423209</v>
+      </c>
+      <c r="P14">
+        <v>0.0189742916423209</v>
+      </c>
+      <c r="Q14">
+        <v>2.171614644178667</v>
+      </c>
+      <c r="R14">
+        <v>19.544531797608</v>
+      </c>
+      <c r="S14">
+        <v>0.00809654305036432</v>
+      </c>
+      <c r="T14">
+        <v>0.00809654305036432</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
         <v>21</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>4.30458713532694</v>
-      </c>
-      <c r="H13">
-        <v>4.30458713532694</v>
-      </c>
-      <c r="I13">
-        <v>0.4854280577570226</v>
-      </c>
-      <c r="J13">
-        <v>0.4854280577570226</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>6.68285334508192</v>
-      </c>
-      <c r="N13">
-        <v>6.68285334508192</v>
-      </c>
-      <c r="O13">
-        <v>0.2680813155927571</v>
-      </c>
-      <c r="P13">
-        <v>0.2680813155927571</v>
-      </c>
-      <c r="Q13">
-        <v>28.76692453651624</v>
-      </c>
-      <c r="R13">
-        <v>28.76692453651624</v>
-      </c>
-      <c r="S13">
-        <v>0.1301341923491395</v>
-      </c>
-      <c r="T13">
-        <v>0.1301341923491395</v>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>4.322670666666667</v>
+      </c>
+      <c r="H15">
+        <v>12.968012</v>
+      </c>
+      <c r="I15">
+        <v>0.4267112155220338</v>
+      </c>
+      <c r="J15">
+        <v>0.4267112155220338</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.6023626666666666</v>
+      </c>
+      <c r="N15">
+        <v>1.807088</v>
+      </c>
+      <c r="O15">
+        <v>0.02275060793223323</v>
+      </c>
+      <c r="P15">
+        <v>0.02275060793223323</v>
+      </c>
+      <c r="Q15">
+        <v>2.603815429895111</v>
+      </c>
+      <c r="R15">
+        <v>23.434338869056</v>
+      </c>
+      <c r="S15">
+        <v>0.009707939564628466</v>
+      </c>
+      <c r="T15">
+        <v>0.009707939564628466</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>4.322670666666667</v>
+      </c>
+      <c r="H16">
+        <v>12.968012</v>
+      </c>
+      <c r="I16">
+        <v>0.4267112155220338</v>
+      </c>
+      <c r="J16">
+        <v>0.4267112155220338</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>5.474800666666667</v>
+      </c>
+      <c r="N16">
+        <v>16.424402</v>
+      </c>
+      <c r="O16">
+        <v>0.2067774952981744</v>
+      </c>
+      <c r="P16">
+        <v>0.2067774952981744</v>
+      </c>
+      <c r="Q16">
+        <v>23.66576024764711</v>
+      </c>
+      <c r="R16">
+        <v>212.991842228824</v>
+      </c>
+      <c r="S16">
+        <v>0.08823427636128563</v>
+      </c>
+      <c r="T16">
+        <v>0.08823427636128563</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>4.322670666666667</v>
+      </c>
+      <c r="H17">
+        <v>12.968012</v>
+      </c>
+      <c r="I17">
+        <v>0.4267112155220338</v>
+      </c>
+      <c r="J17">
+        <v>0.4267112155220338</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>5.012936333333333</v>
+      </c>
+      <c r="N17">
+        <v>15.038809</v>
+      </c>
+      <c r="O17">
+        <v>0.1893333624741797</v>
+      </c>
+      <c r="P17">
+        <v>0.1893333624741797</v>
+      </c>
+      <c r="Q17">
+        <v>21.66927284196756</v>
+      </c>
+      <c r="R17">
+        <v>195.023455577708</v>
+      </c>
+      <c r="S17">
+        <v>0.08079066924023107</v>
+      </c>
+      <c r="T17">
+        <v>0.08079066924023107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>4.322670666666667</v>
+      </c>
+      <c r="H18">
+        <v>12.968012</v>
+      </c>
+      <c r="I18">
+        <v>0.4267112155220338</v>
+      </c>
+      <c r="J18">
+        <v>0.4267112155220338</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>7.423250333333333</v>
+      </c>
+      <c r="N18">
+        <v>22.269751</v>
+      </c>
+      <c r="O18">
+        <v>0.2803684014001858</v>
+      </c>
+      <c r="P18">
+        <v>0.2803684014001858</v>
+      </c>
+      <c r="Q18">
+        <v>32.08826646722355</v>
+      </c>
+      <c r="R18">
+        <v>288.794398205012</v>
+      </c>
+      <c r="S18">
+        <v>0.1196363413554428</v>
+      </c>
+      <c r="T18">
+        <v>0.1196363413554428</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>4.322670666666667</v>
+      </c>
+      <c r="H19">
+        <v>12.968012</v>
+      </c>
+      <c r="I19">
+        <v>0.4267112155220338</v>
+      </c>
+      <c r="J19">
+        <v>0.4267112155220338</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>7.461044333333334</v>
+      </c>
+      <c r="N19">
+        <v>22.383133</v>
+      </c>
+      <c r="O19">
+        <v>0.281795841252906</v>
+      </c>
+      <c r="P19">
+        <v>0.281795841252906</v>
+      </c>
+      <c r="Q19">
+        <v>32.25163748239956</v>
+      </c>
+      <c r="R19">
+        <v>290.2647373415961</v>
+      </c>
+      <c r="S19">
+        <v>0.1202454459500816</v>
+      </c>
+      <c r="T19">
+        <v>0.1202454459500816</v>
       </c>
     </row>
   </sheetData>
